--- a/loy/shop.xlsx
+++ b/loy/shop.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Sku</t>
   </si>
@@ -44,19 +44,22 @@
     <t>To Date</t>
   </si>
   <si>
-    <t xml:space="preserve"> 100110308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telstra Call Guardian 301 </t>
-  </si>
-  <si>
-    <t>undefined/undefined/  undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100110252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telstra Call Guardian 301 Additional Handset </t>
+    <t xml:space="preserve"> 100111132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple EarPods with Lightning Connector </t>
+  </si>
+  <si>
+    <t>01/04/2022  22:42</t>
+  </si>
+  <si>
+    <t>09/04/2022  22:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100110635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tello Drone </t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,141 +456,217 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3">
+        <v>13500</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
       <c r="G4">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="H4">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
       <c r="G5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H5">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>58000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
       <c r="G6">
-        <v>17500</v>
+        <v>56000</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C7">
+        <v>50000</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
       <c r="G7">
+        <v>50000</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8">
+        <v>40000</v>
+      </c>
+      <c r="D8">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>45000</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9">
+        <v>35000</v>
+      </c>
+      <c r="D9">
+        <v>71</v>
+      </c>
+      <c r="G9">
+        <v>40000</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10">
+        <v>30000</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="G10">
+        <v>35000</v>
+      </c>
+      <c r="H10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11">
+        <v>25000</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="G11">
+        <v>30000</v>
+      </c>
+      <c r="H11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12">
+        <v>20000</v>
+      </c>
+      <c r="D12">
+        <v>113</v>
+      </c>
+      <c r="G12">
+        <v>25000</v>
+      </c>
+      <c r="H12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13">
         <v>15000</v>
       </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="G8">
-        <v>12500</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="G9">
+      <c r="D13">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>20000</v>
+      </c>
+      <c r="H13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14">
         <v>10000</v>
       </c>
-      <c r="H9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="G10">
-        <v>7500</v>
-      </c>
-      <c r="H10">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="G11">
+      <c r="D14">
+        <v>142</v>
+      </c>
+      <c r="G14">
+        <v>15000</v>
+      </c>
+      <c r="H14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15">
         <v>5000</v>
       </c>
-      <c r="H11">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
+      <c r="D15">
+        <v>156</v>
+      </c>
+      <c r="G15">
         <v>10000</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="G13">
-        <v>7500</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="G14">
+      <c r="H15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16">
+        <v>2500</v>
+      </c>
+      <c r="D16">
+        <v>163</v>
+      </c>
+      <c r="G16">
         <v>5000</v>
       </c>
-      <c r="H14">
-        <v>15</v>
+      <c r="H16">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
